--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -660,7 +660,7 @@
         <v>0.04</v>
       </c>
       <c r="H2">
-        <v>5.412857142857142</v>
+        <v>5.41</v>
       </c>
       <c r="I2">
         <v>0.04</v>
@@ -696,7 +696,7 @@
         <v>24.58</v>
       </c>
       <c r="T2">
-        <v>13.6875</v>
+        <v>13.69</v>
       </c>
       <c r="U2">
         <v>0.19</v>
@@ -714,7 +714,7 @@
         <v>6.09</v>
       </c>
       <c r="Z2">
-        <v>39.54642857142858</v>
+        <v>39.55</v>
       </c>
       <c r="AA2">
         <v>28.7</v>
@@ -723,7 +723,7 @@
         <v>63.52</v>
       </c>
       <c r="AC2">
-        <v>8.874117647058823</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AD2">
         <v>0.13</v>
@@ -732,7 +732,7 @@
         <v>4.03</v>
       </c>
       <c r="AF2">
-        <v>70.06307692307692</v>
+        <v>70.06</v>
       </c>
       <c r="AG2">
         <v>24.58</v>
@@ -758,13 +758,13 @@
         <v>58.14</v>
       </c>
       <c r="G3">
-        <v>3.063888888888889</v>
+        <v>3.06</v>
       </c>
       <c r="H3">
-        <v>5.412857142857142</v>
+        <v>5.41</v>
       </c>
       <c r="I3">
-        <v>8.165263157894737</v>
+        <v>8.17</v>
       </c>
       <c r="J3">
         <v>2.24</v>
@@ -797,7 +797,7 @@
         <v>26.87</v>
       </c>
       <c r="T3">
-        <v>13.6875</v>
+        <v>13.69</v>
       </c>
       <c r="U3">
         <v>0.03</v>
@@ -815,7 +815,7 @@
         <v>6.19</v>
       </c>
       <c r="Z3">
-        <v>39.54642857142858</v>
+        <v>39.55</v>
       </c>
       <c r="AA3">
         <v>28.43</v>
@@ -824,16 +824,16 @@
         <v>62.95</v>
       </c>
       <c r="AC3">
-        <v>8.874117647058823</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AD3">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE3">
         <v>1.27</v>
       </c>
       <c r="AF3">
-        <v>70.06307692307692</v>
+        <v>70.06</v>
       </c>
       <c r="AG3">
         <v>26.87</v>
@@ -862,7 +862,7 @@
         <v>0.09</v>
       </c>
       <c r="H4">
-        <v>5.412857142857142</v>
+        <v>5.41</v>
       </c>
       <c r="I4">
         <v>0.09</v>
@@ -898,10 +898,10 @@
         <v>7.06</v>
       </c>
       <c r="T4">
-        <v>13.6875</v>
+        <v>13.69</v>
       </c>
       <c r="U4">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>11.17</v>
@@ -916,7 +916,7 @@
         <v>5.85</v>
       </c>
       <c r="Z4">
-        <v>39.54642857142858</v>
+        <v>39.55</v>
       </c>
       <c r="AA4">
         <v>25.26</v>
@@ -934,7 +934,7 @@
         <v>1.9</v>
       </c>
       <c r="AF4">
-        <v>70.06307692307692</v>
+        <v>70.06</v>
       </c>
       <c r="AG4">
         <v>7.06</v>
@@ -963,7 +963,7 @@
         <v>1.45</v>
       </c>
       <c r="H5">
-        <v>5.412857142857142</v>
+        <v>5.41</v>
       </c>
       <c r="I5">
         <v>1.45</v>
@@ -999,10 +999,10 @@
         <v>7.11</v>
       </c>
       <c r="T5">
-        <v>13.6875</v>
+        <v>13.69</v>
       </c>
       <c r="U5">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V5">
         <v>12.87</v>
@@ -1017,7 +1017,7 @@
         <v>14.86</v>
       </c>
       <c r="Z5">
-        <v>39.54642857142858</v>
+        <v>39.55</v>
       </c>
       <c r="AA5">
         <v>40.29</v>
@@ -1026,7 +1026,7 @@
         <v>53.16</v>
       </c>
       <c r="AC5">
-        <v>8.874117647058823</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AD5">
         <v>2.41</v>
@@ -1035,7 +1035,7 @@
         <v>4.19</v>
       </c>
       <c r="AF5">
-        <v>70.06307692307692</v>
+        <v>70.06</v>
       </c>
       <c r="AG5">
         <v>7.11</v>
@@ -1064,7 +1064,7 @@
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>5.412857142857142</v>
+        <v>5.41</v>
       </c>
       <c r="I6">
         <v>0.67</v>
@@ -1103,7 +1103,7 @@
         <v>1.98</v>
       </c>
       <c r="U6">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V6">
         <v>37.9</v>
@@ -1118,7 +1118,7 @@
         <v>24.21</v>
       </c>
       <c r="Z6">
-        <v>39.54642857142858</v>
+        <v>39.55</v>
       </c>
       <c r="AA6">
         <v>60.55</v>
@@ -1136,7 +1136,7 @@
         <v>6.24</v>
       </c>
       <c r="AF6">
-        <v>70.06307692307692</v>
+        <v>70.06</v>
       </c>
       <c r="AG6">
         <v>28.56</v>
@@ -1162,16 +1162,16 @@
         <v>95.64</v>
       </c>
       <c r="G7">
-        <v>3.063888888888889</v>
+        <v>3.06</v>
       </c>
       <c r="H7">
-        <v>5.412857142857142</v>
+        <v>5.41</v>
       </c>
       <c r="I7">
         <v>0.44</v>
       </c>
       <c r="J7">
-        <v>8.675294117647057</v>
+        <v>8.68</v>
       </c>
       <c r="K7">
         <v>2.23</v>
@@ -1204,7 +1204,7 @@
         <v>0.99</v>
       </c>
       <c r="U7">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V7">
         <v>57.98</v>
@@ -1219,7 +1219,7 @@
         <v>38.32</v>
       </c>
       <c r="Z7">
-        <v>39.54642857142858</v>
+        <v>39.55</v>
       </c>
       <c r="AA7">
         <v>54.4</v>
@@ -1237,7 +1237,7 @@
         <v>5.01</v>
       </c>
       <c r="AF7">
-        <v>70.06307692307692</v>
+        <v>70.06</v>
       </c>
       <c r="AG7">
         <v>53.49</v>
@@ -1272,7 +1272,7 @@
         <v>4.59</v>
       </c>
       <c r="J8">
-        <v>8.675294117647057</v>
+        <v>8.68</v>
       </c>
       <c r="K8">
         <v>0.83</v>
@@ -1305,7 +1305,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="U8">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V8">
         <v>67.43000000000001</v>
@@ -1373,7 +1373,7 @@
         <v>5.64</v>
       </c>
       <c r="J9">
-        <v>8.675294117647057</v>
+        <v>8.68</v>
       </c>
       <c r="K9">
         <v>3.4</v>
@@ -1406,7 +1406,7 @@
         <v>1.13</v>
       </c>
       <c r="U9">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V9">
         <v>125.68</v>
@@ -1507,7 +1507,7 @@
         <v>2.83</v>
       </c>
       <c r="U10">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V10">
         <v>154.25</v>
@@ -1608,7 +1608,7 @@
         <v>2.84</v>
       </c>
       <c r="U11">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V11">
         <v>162.72</v>
@@ -1709,7 +1709,7 @@
         <v>3.53</v>
       </c>
       <c r="U12">
-        <v>4.998181818181818</v>
+        <v>5</v>
       </c>
       <c r="V12">
         <v>156.25</v>
@@ -1938,13 +1938,13 @@
         <v>12.26</v>
       </c>
       <c r="AD14">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE14">
-        <v>6.617894736842106</v>
+        <v>6.62</v>
       </c>
       <c r="AF14">
-        <v>70.06307692307692</v>
+        <v>70.06</v>
       </c>
       <c r="AG14">
         <v>158.1</v>
@@ -2039,7 +2039,7 @@
         <v>5.36</v>
       </c>
       <c r="AD15">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE15">
         <v>1.17</v>
@@ -2241,7 +2241,7 @@
         <v>3.69</v>
       </c>
       <c r="AD17">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE17">
         <v>2.59</v>
@@ -2342,7 +2342,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD18">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE18">
         <v>46.28</v>
@@ -2443,7 +2443,7 @@
         <v>10.58</v>
       </c>
       <c r="AD19">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE19">
         <v>12.56</v>
@@ -2544,7 +2544,7 @@
         <v>27.97</v>
       </c>
       <c r="AD20">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE20">
         <v>10.97</v>
@@ -2645,7 +2645,7 @@
         <v>36.35</v>
       </c>
       <c r="AD21">
-        <v>2.445</v>
+        <v>2.44</v>
       </c>
       <c r="AE21">
         <v>10.93</v>
